--- a/CustomerList.xlsx
+++ b/CustomerList.xlsx
@@ -1,127 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\UiPath\CRM_PPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7632" firstSheet="0" activeTab="1"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="CustomerRFM" sheetId="2" r:id="rId1"/>
-    <x:sheet name="CustomerRank" sheetId="5" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7632"/>
+  </bookViews>
+  <sheets>
+    <sheet name="CustomerRFM" sheetId="2" r:id="rId1"/>
+    <sheet name="CustomerRank" sheetId="5" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Email ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frequency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monetary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RFM_Score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Segment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Calculate Period</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pmedina@mitchell.info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mr. Matthew Walker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/2024-09/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bronze</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bjohnson@hotmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alan Smith</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Recency</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Monetary</t>
+  </si>
+  <si>
+    <t>RFM_Score</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Calculate Period</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,125 +397,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:G1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="K6" sqref="K6"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B13" sqref="B13"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="21.554688" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="43.109375" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.109375" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.109375" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="0">
-        <x:v>120000</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0">
-        <x:v>1080000</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
--- a/CustomerList.xlsx
+++ b/CustomerList.xlsx
@@ -1,116 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\UiPath\CRM_PPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7632"/>
-  </bookViews>
-  <sheets>
-    <sheet name="CustomerRFM" sheetId="2" r:id="rId1"/>
-    <sheet name="CustomerRank" sheetId="5" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7632" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="CustomerRFM" sheetId="2" r:id="rId1"/>
+    <x:sheet name="CustomerRank" sheetId="5" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Recency</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Monetary</t>
-  </si>
-  <si>
-    <t>RFM_Score</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Calculate Period</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Email ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frequency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monetary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RFM_Score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Segment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calculate Period</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hieuminhtk@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyễn Thị Minh Hiếu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04/2025-09/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diamond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trangvth22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Võ Thị Huyền Trang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bronze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bjohnson@hotmail.come</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alan Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyễn Văn A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/2025-09/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trần Thị B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lê Minh C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phạm Thị D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoàng Văn E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khoatrinhtiendat@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trịnh Tiến Đạt Khoa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>candicesanders@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Wyatt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gwalker@smith.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theresa Mendez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>davidmckee@lee.info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Fernandez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>robert28@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kathryn Gordon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thomasjamie@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kelly Webster</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mgonzalez@james-hawkins.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>James Gonzalez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>briana42@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Palmer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bridgetwilson@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casey Archer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lannqh22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stephen Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>robinsimpson@conner-miller.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steven Chandler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hieuntm22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniel Proctor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amy68@weeks.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brittany Reed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lisamiller@mckinney.biz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Craig Horn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khainq22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyễn Quốc Khải</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stacy25@bates.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joshua Moore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>obolton@holmes.info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cynthia Webb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>christopher02@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blake Sexton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>timothy43@abbott.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruth Campbell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rileyralph@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pamela Maldonado</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,83 +586,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:G1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="G5" sqref="G5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="C11" sqref="C11"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="25.554688" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.441406" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.109375" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.109375" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0">
+        <x:v>10820000</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="0">
+        <x:v>600000</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="0">
+        <x:v>1080000</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="0">
+        <x:v>450000</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C6" s="0">
+        <x:v>1000000</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="0">
+        <x:v>200000</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" s="0">
+        <x:v>2000000</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" s="0">
+        <x:v>300000</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C10" s="0">
+        <x:v>11420000</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C11" s="0">
+        <x:v>640000</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="0">
+        <x:v>720000</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="0">
+        <x:v>720000</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="0">
+        <x:v>1050000</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C15" s="0">
+        <x:v>2340000</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C16" s="0">
+        <x:v>2500000</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C17" s="0">
+        <x:v>2000000</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C18" s="0">
+        <x:v>3500000</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C19" s="0">
+        <x:v>240000</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C20" s="0">
+        <x:v>800000</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C21" s="0">
+        <x:v>1200000</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C22" s="0">
+        <x:v>720000</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C23" s="0">
+        <x:v>1620000</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C24" s="0">
+        <x:v>2500000</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C25" s="0">
+        <x:v>1050000</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C26" s="0">
+        <x:v>1080000</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C27" s="0">
+        <x:v>2250000</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C28" s="0">
+        <x:v>700000</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C29" s="0">
+        <x:v>1000000</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C30" s="0">
+        <x:v>3150000</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C31" s="0">
+        <x:v>450000</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C32" s="0">
+        <x:v>1000000</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C33" s="0">
+        <x:v>200000</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C34" s="0">
+        <x:v>2000000</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C35" s="0">
+        <x:v>300000</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C36" s="0">
+        <x:v>11420000</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C37" s="0">
+        <x:v>640000</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C38" s="0">
+        <x:v>720000</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C39" s="0">
+        <x:v>720000</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C40" s="0">
+        <x:v>1050000</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C41" s="0">
+        <x:v>2340000</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C42" s="0">
+        <x:v>2500000</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C43" s="0">
+        <x:v>2000000</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C44" s="0">
+        <x:v>3500000</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C45" s="0">
+        <x:v>240000</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C46" s="0">
+        <x:v>800000</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C47" s="0">
+        <x:v>1200000</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C48" s="0">
+        <x:v>720000</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C49" s="0">
+        <x:v>1620000</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C50" s="0">
+        <x:v>2500000</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5">
+      <x:c r="A51" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C51" s="0">
+        <x:v>1050000</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="A52" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C52" s="0">
+        <x:v>1080000</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="A53" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C53" s="0">
+        <x:v>2250000</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="A54" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C54" s="0">
+        <x:v>700000</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5">
+      <x:c r="A55" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C55" s="0">
+        <x:v>1000000</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5">
+      <x:c r="A56" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C56" s="0">
+        <x:v>3150000</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/CustomerList.xlsx
+++ b/CustomerList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7632" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7632" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="CustomerRFM" sheetId="2" r:id="rId1"/>
@@ -53,94 +53,73 @@
     <x:t>Rank</x:t>
   </x:si>
   <x:si>
-    <x:t>hieuminhtk@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyễn Thị Minh Hiếu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04/2025-09/2025</x:t>
+    <x:t>b@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trần Thị B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/2025-09/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bronze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lê Minh C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phạm Thị D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoàng Văn E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khoatrinhtiendat@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trịnh Tiến Đạt Khoa</x:t>
   </x:si>
   <x:si>
     <x:t>Diamond</x:t>
   </x:si>
   <x:si>
+    <x:t>candicesanders@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Wyatt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gwalker@smith.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Theresa Mendez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>davidmckee@lee.info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Fernandez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>robert28@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kathryn Gordon</x:t>
+  </x:si>
+  <x:si>
     <x:t>trangvth22411@st.uel.edu.vn</x:t>
   </x:si>
   <x:si>
     <x:t>Võ Thị Huyền Trang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bronze</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bjohnson@hotmail.come</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alan Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyễn Văn A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07/2025-09/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trần Thị B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lê Minh C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phạm Thị D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoàng Văn E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>khoatrinhtiendat@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trịnh Tiến Đạt Khoa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>candicesanders@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John Wyatt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gwalker@smith.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theresa Mendez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>davidmckee@lee.info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Fernandez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>robert28@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kathryn Gordon</x:t>
   </x:si>
   <x:si>
     <x:t>thomasjamie@gmail.com</x:t>
@@ -592,7 +571,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:G1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="G5" sqref="G5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -637,8 +616,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E3"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C11" sqref="C11"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C52" sqref="C52"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +653,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>10820000</x:v>
+        <x:v>1000000</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>12</x:v>
@@ -691,129 +670,129 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0">
-        <x:v>600000</x:v>
+        <x:v>200000</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="C4" s="0">
-        <x:v>1080000</x:v>
+        <x:v>2000000</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="C5" s="0">
-        <x:v>450000</x:v>
+        <x:v>300000</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="0">
+        <x:v>11420000</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C6" s="0">
-        <x:v>1000000</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C7" s="0">
-        <x:v>200000</x:v>
+        <x:v>640000</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="C8" s="0">
-        <x:v>2000000</x:v>
+        <x:v>720000</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="C9" s="0">
-        <x:v>300000</x:v>
+        <x:v>720000</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="C10" s="0">
-        <x:v>11420000</x:v>
+        <x:v>1050000</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>13</x:v>
@@ -821,784 +800,274 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="C11" s="0">
-        <x:v>640000</x:v>
+        <x:v>2340000</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="C12" s="0">
-        <x:v>720000</x:v>
+        <x:v>2500000</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="C13" s="0">
-        <x:v>720000</x:v>
+        <x:v>2000000</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0">
+        <x:v>3500000</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="C14" s="0">
-        <x:v>1050000</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C15" s="0">
-        <x:v>2340000</x:v>
+        <x:v>240000</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C16" s="0">
-        <x:v>2500000</x:v>
+        <x:v>800000</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C17" s="0">
-        <x:v>2000000</x:v>
+        <x:v>1200000</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C18" s="0">
-        <x:v>3500000</x:v>
+        <x:v>720000</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C19" s="0">
-        <x:v>240000</x:v>
+        <x:v>1620000</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C20" s="0">
-        <x:v>800000</x:v>
+        <x:v>2500000</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="0">
-        <x:v>1200000</x:v>
+        <x:v>1050000</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C22" s="0">
-        <x:v>720000</x:v>
+        <x:v>1080000</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C23" s="0">
-        <x:v>1620000</x:v>
+        <x:v>2250000</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C24" s="0">
-        <x:v>2500000</x:v>
+        <x:v>700000</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C25" s="0">
-        <x:v>1050000</x:v>
+        <x:v>1000000</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C26" s="0">
-        <x:v>1080000</x:v>
+        <x:v>3150000</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="A27" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C27" s="0">
-        <x:v>2250000</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="A28" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C28" s="0">
-        <x:v>700000</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="A29" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C29" s="0">
-        <x:v>1000000</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="A30" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C30" s="0">
-        <x:v>3150000</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="A31" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C31" s="0">
-        <x:v>450000</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:5">
-      <x:c r="A32" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C32" s="0">
-        <x:v>1000000</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:5">
-      <x:c r="A33" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C33" s="0">
-        <x:v>200000</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:5">
-      <x:c r="A34" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C34" s="0">
-        <x:v>2000000</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:5">
-      <x:c r="A35" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C35" s="0">
-        <x:v>300000</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:5">
-      <x:c r="A36" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C36" s="0">
-        <x:v>11420000</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:5">
-      <x:c r="A37" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C37" s="0">
-        <x:v>640000</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:5">
-      <x:c r="A38" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C38" s="0">
-        <x:v>720000</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E38" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:5">
-      <x:c r="A39" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C39" s="0">
-        <x:v>720000</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:5">
-      <x:c r="A40" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="C40" s="0">
-        <x:v>1050000</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:5">
-      <x:c r="A41" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C41" s="0">
-        <x:v>2340000</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E41" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:5">
-      <x:c r="A42" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C42" s="0">
-        <x:v>2500000</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:5">
-      <x:c r="A43" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C43" s="0">
-        <x:v>2000000</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E43" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:5">
-      <x:c r="A44" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C44" s="0">
-        <x:v>3500000</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:5">
-      <x:c r="A45" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C45" s="0">
-        <x:v>240000</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E45" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:5">
-      <x:c r="A46" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C46" s="0">
-        <x:v>800000</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:5">
-      <x:c r="A47" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C47" s="0">
-        <x:v>1200000</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E47" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:5">
-      <x:c r="A48" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C48" s="0">
-        <x:v>720000</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:5">
-      <x:c r="A49" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C49" s="0">
-        <x:v>1620000</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:5">
-      <x:c r="A50" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C50" s="0">
-        <x:v>2500000</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E50" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:5">
-      <x:c r="A51" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C51" s="0">
-        <x:v>1050000</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E51" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:5">
-      <x:c r="A52" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C52" s="0">
-        <x:v>1080000</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:5">
-      <x:c r="A53" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C53" s="0">
-        <x:v>2250000</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E53" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:5">
-      <x:c r="A54" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B54" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C54" s="0">
-        <x:v>700000</x:v>
-      </x:c>
-      <x:c r="D54" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E54" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:5">
-      <x:c r="A55" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C55" s="0">
-        <x:v>1000000</x:v>
-      </x:c>
-      <x:c r="D55" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E55" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:5">
-      <x:c r="A56" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C56" s="0">
-        <x:v>3150000</x:v>
-      </x:c>
-      <x:c r="D56" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E56" s="0" t="s">
-        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/CustomerList.xlsx
+++ b/CustomerList.xlsx
@@ -179,40 +179,10 @@
     <x:t>Craig Horn</x:t>
   </x:si>
   <x:si>
-    <x:t>khainq22411@st.uel.edu.vn</x:t>
+    <x:t>khainq224117@st.uel.edu.vn</x:t>
   </x:si>
   <x:si>
     <x:t>Nguyễn Quốc Khải</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stacy25@bates.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joshua Moore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>obolton@holmes.info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cynthia Webb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>christopher02@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blake Sexton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>timothy43@abbott.net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruth Campbell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rileyralph@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pamela Maldonado</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -617,7 +587,7 @@
   <x:dimension ref="A1:E3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C52" sqref="C52"/>
+      <x:selection activeCell="A2" sqref="A2 A2:E63"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,91 +955,6 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C22" s="0">
-        <x:v>1080000</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C23" s="0">
-        <x:v>2250000</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="A24" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C24" s="0">
-        <x:v>700000</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="A25" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C25" s="0">
-        <x:v>1000000</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="A26" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C26" s="0">
-        <x:v>3150000</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/CustomerList.xlsx
+++ b/CustomerList.xlsx
@@ -53,136 +53,16 @@
     <x:t>Rank</x:t>
   </x:si>
   <x:si>
-    <x:t>b@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trần Thị B</x:t>
+    <x:t>trangvth22411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Võ Thị Huyền Trang</x:t>
   </x:si>
   <x:si>
     <x:t>08/2025-09/2025</x:t>
   </x:si>
   <x:si>
     <x:t>Bronze</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lê Minh C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phạm Thị D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoàng Văn E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>khoatrinhtiendat@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trịnh Tiến Đạt Khoa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diamond</x:t>
-  </x:si>
-  <x:si>
-    <x:t>candicesanders@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John Wyatt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gwalker@smith.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Theresa Mendez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>davidmckee@lee.info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Fernandez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>robert28@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kathryn Gordon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>trangvth22411@st.uel.edu.vn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Võ Thị Huyền Trang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thomasjamie@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kelly Webster</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mgonzalez@james-hawkins.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>James Gonzalez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>briana42@hotmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John Palmer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bridgetwilson@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casey Archer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lannqh22411@st.uel.edu.vn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stephen Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>robinsimpson@conner-miller.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steven Chandler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hieuntm22411@st.uel.edu.vn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daniel Proctor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amy68@weeks.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brittany Reed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lisamiller@mckinney.biz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Craig Horn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>khainq224117@st.uel.edu.vn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyễn Quốc Khải</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -587,7 +467,7 @@
   <x:dimension ref="A1:E3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:E63"/>
+      <x:selection activeCell="A2" sqref="A2 A2:E21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +503,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>1000000</x:v>
+        <x:v>2020000</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>12</x:v>
@@ -634,13 +514,13 @@
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0">
-        <x:v>200000</x:v>
+        <x:v>2020000</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>12</x:v>
@@ -651,13 +531,13 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0">
-        <x:v>2000000</x:v>
+        <x:v>2020000</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>12</x:v>
@@ -668,13 +548,13 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="0">
-        <x:v>300000</x:v>
+        <x:v>2020000</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>12</x:v>
@@ -685,273 +565,18 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="0">
-        <x:v>11420000</x:v>
+        <x:v>2020000</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C7" s="0">
-        <x:v>640000</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C8" s="0">
-        <x:v>720000</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C9" s="0">
-        <x:v>720000</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C10" s="0">
-        <x:v>1050000</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="0">
-        <x:v>2340000</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C12" s="0">
-        <x:v>2500000</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C13" s="0">
-        <x:v>2000000</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C14" s="0">
-        <x:v>3500000</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C15" s="0">
-        <x:v>240000</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C16" s="0">
-        <x:v>800000</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C17" s="0">
-        <x:v>1200000</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C18" s="0">
-        <x:v>720000</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C19" s="0">
-        <x:v>1620000</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C20" s="0">
-        <x:v>2500000</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C21" s="0">
-        <x:v>1050000</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
